--- a/VerveStacks_BRA/vt_vervestacks_BRA_v1.xlsx
+++ b/VerveStacks_BRA/vt_vervestacks_BRA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4A2813-4107-4B44-B1E1-165DB054256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B13207B0-0D20-4DD5-9134-F4C56AF0F1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{20166DEA-8258-465C-A37E-8E09F9E91FC5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{66D3ECC5-1D08-43E2-B8DA-61324E11BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3035,7 +3035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E47F2A9-9C25-4A5D-9039-99A429B822E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CA978B-ED9C-4F6F-821F-9A6D4655F245}">
   <dimension ref="B9:T203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -13311,7 +13311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9283E23E-9533-4EB6-B765-777296B09388}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BBF90F-2D13-4D45-83A4-D36C9094B9A8}">
   <dimension ref="B9:T486"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BRA/vt_vervestacks_BRA_v1.xlsx
+++ b/VerveStacks_BRA/vt_vervestacks_BRA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4EE008-7595-45A7-8CA0-8E905AD970D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8637D5E0-296C-47A2-80E4-6EFD0220F595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FE61C2EC-46AD-4ADD-8D36-0B612E6A6FC3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8849329B-C2EE-45A0-BC9E-3751D82B03D5}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3881,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9273E56-E052-41BF-9D91-A70F869778EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC49ED-C986-4D7A-B7C2-DE196C87FBD3}">
   <dimension ref="B9:T224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -15942,7 +15942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3C83FA-E19F-4ADE-B867-63716C97C2A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B331FD-3DE5-43BC-99D4-430D684E9C54}">
   <dimension ref="B9:T563"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41571,7 +41571,7 @@
         <v>33</v>
       </c>
       <c r="L516">
-        <v>0.21949673338651035</v>
+        <v>0.2194967333865103</v>
       </c>
     </row>
     <row r="517" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_BRA/vt_vervestacks_BRA_v1.xlsx
+++ b/VerveStacks_BRA/vt_vervestacks_BRA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8637D5E0-296C-47A2-80E4-6EFD0220F595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C1C24A-78A0-417E-81C8-723B3DB8F4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8849329B-C2EE-45A0-BC9E-3751D82B03D5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CF795369-BEB7-47CB-93FD-DDD859DFD4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3881,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC49ED-C986-4D7A-B7C2-DE196C87FBD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84423E4C-27E2-47D5-8DBD-6D8A871BC9CF}">
   <dimension ref="B9:T224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -15942,7 +15942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B331FD-3DE5-43BC-99D4-430D684E9C54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74416D15-4892-475E-988D-873647AE8970}">
   <dimension ref="B9:T563"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_BRA/vt_vervestacks_BRA_v1.xlsx
+++ b/VerveStacks_BRA/vt_vervestacks_BRA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C1C24A-78A0-417E-81C8-723B3DB8F4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{134A9A12-56F1-4079-8E68-A8626E5472BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CF795369-BEB7-47CB-93FD-DDD859DFD4D5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0945ECDE-285D-43F0-9679-7CF33A803641}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3881,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84423E4C-27E2-47D5-8DBD-6D8A871BC9CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A939758-AAC6-4D5C-8131-1488C3E55468}">
   <dimension ref="B9:T224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -15942,7 +15942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74416D15-4892-475E-988D-873647AE8970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CD3DED-DA7A-4001-A5C5-242B1257DE76}">
   <dimension ref="B9:T563"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
